--- a/DATA/availability.xlsx
+++ b/DATA/availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB062C72-150F-45F7-8F90-6BC16921B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90E2E1-3858-4598-8A91-AF61539E1189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9187D294-4FEE-45BE-9DBF-0D711B385E35}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Input Factor</t>
   </si>
@@ -93,10 +90,10 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Raw Mateial</t>
-  </si>
-  <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Raw Material</t>
   </si>
 </sst>
 </file>
@@ -132,13 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -457,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3744112E-5253-4481-A775-20B6890225AB}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,224 +462,195 @@
     <col min="1" max="16384" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2">
         <v>350</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>250</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
-        <v>250</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>150</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
-        <v>150</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="C7" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>300</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D11" s="3">
-        <v>300</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="2">
         <v>60</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DATA/availability.xlsx
+++ b/DATA/availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90E2E1-3858-4598-8A91-AF61539E1189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F9C6A-E092-433D-83A0-3372481A6AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9187D294-4FEE-45BE-9DBF-0D711B385E35}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14160" windowHeight="14880" xr2:uid="{9187D294-4FEE-45BE-9DBF-0D711B385E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Input Factor</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Flour</t>
   </si>
   <si>
-    <t>Production Machine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mixer </t>
   </si>
   <si>
@@ -85,15 +82,6 @@
   </si>
   <si>
     <t>Labor Hours</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Raw Material</t>
   </si>
 </sst>
 </file>
@@ -451,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3744112E-5253-4481-A775-20B6890225AB}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,192 +450,169 @@
     <col min="1" max="16384" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>350</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>250</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>150</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>350</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>250</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>150</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B11" s="2">
         <v>300</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B15" s="2">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/availability.xlsx
+++ b/DATA/availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F9C6A-E092-433D-83A0-3372481A6AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53404E-98BC-4CD0-8E2D-D62F49C8D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14160" windowHeight="14880" xr2:uid="{9187D294-4FEE-45BE-9DBF-0D711B385E35}"/>
+    <workbookView xWindow="12615" yWindow="465" windowWidth="14160" windowHeight="14880" xr2:uid="{9187D294-4FEE-45BE-9DBF-0D711B385E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -543,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
